--- a/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
+++ b/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-us\InputData\fuels\PoFDCtAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3080F3D-E11E-4DBB-BBED-152C18825466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39172FEF-DF46-4438-98F5-4879A2699F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="-5760" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
+++ b/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-us\InputData\fuels\PoFDCtAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39172FEF-DF46-4438-98F5-4879A2699F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944C047B-153C-458A-AE04-46EA9661B408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="-5760" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="-2835" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1126,7 +1126,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1539,7 +1539,7 @@
         <v>52</v>
       </c>
       <c r="B24" s="22">
-        <v>8746500000000000</v>
+        <v>1345098039215686.5</v>
       </c>
       <c r="C24" s="22">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="20">
-        <v>8746500000000000</v>
+        <v>1345098039215686.5</v>
       </c>
       <c r="F24" t="s">
         <v>77</v>
